--- a/docs/gamev3.xlsx
+++ b/docs/gamev3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boric\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessvri\Desktop\reelbound\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615DE0EE-E902-4547-A2E0-2349025D5637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7659F10-3872-4547-9C8E-B7924CC1177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{3504DE5C-72B8-4340-B374-70F8E7914999}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3504DE5C-72B8-4340-B374-70F8E7914999}"/>
   </bookViews>
   <sheets>
     <sheet name="creditsIndex" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -169,9 +166,6 @@
     <t>star</t>
   </si>
   <si>
-    <t>Mult</t>
-  </si>
-  <si>
     <t>Sample Win Condition Value Index</t>
   </si>
   <si>
@@ -203,6 +197,9 @@
   </si>
   <si>
     <t>Sample Win Condition score</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D31813C-EFF8-441A-BBE4-56ACB9315A1F}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3206,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31FA115-4FDD-4659-ABCF-AC03C1A62D83}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,7 +3219,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -3237,13 +3234,13 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3354,7 +3351,7 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5">
         <f>M11*M15</f>
@@ -3409,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7">
         <v>20</v>
@@ -3442,7 +3439,7 @@
         <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="5">
         <v>6</v>
@@ -3475,7 +3472,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="4">
         <f>_xlfn.XLOOKUP(M8,A1:A21,D1:D21,0,0)</f>
@@ -3509,7 +3506,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="4">
         <f>_xlfn.XLOOKUP(M8,A1:A21,E1:E21,0,0)</f>
@@ -3534,7 +3531,7 @@
         <v>10.403649798425736</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="6">
         <f>M9*M10</f>
@@ -3559,7 +3556,7 @@
         <v>3.926561660118951</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="5">
         <v>9</v>
@@ -3583,7 +3580,7 @@
         <v>5.4662811952514279</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="4">
         <f>_xlfn.XLOOKUP(M12,G1:G10,I1:I10,0,0)</f>
@@ -3608,7 +3605,7 @@
         <v>7.0654281412826503</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" s="4">
         <f>_xlfn.XLOOKUP(M8,A1:A21,C1:C21,0,0)</f>
@@ -3633,7 +3630,7 @@
         <v>8.7135858965200494</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="6">
         <f>M13*M14</f>
